--- a/biology/Médecine/Philippe-Charles_Pinel/Philippe-Charles_Pinel.xlsx
+++ b/biology/Médecine/Philippe-Charles_Pinel/Philippe-Charles_Pinel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe-Charles Pinel (ou Charles-Philippe Pinel) est un médecin français né le 19 janvier 1828 à Paris où il est mort le 31 mai 1895[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe-Charles Pinel (ou Charles-Philippe Pinel) est un médecin français né le 19 janvier 1828 à Paris où il est mort le 31 mai 1895.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe-Charles Pinel est le fils de Scipion Pinel et le petit-fils de Philippe Pinel. 
-Il était bachelier ès lettres et ès sciences, docteur en médecine de la Faculté de Paris, ancien interne des hôpitaux civils et membre de plusieurs sociétés savantes[2]. 
-Il a étudié les maladies nerveuses avec Jean-Martin Charcot[3] et est devenu médecin de l'Assistance publique. 
+Il était bachelier ès lettres et ès sciences, docteur en médecine de la Faculté de Paris, ancien interne des hôpitaux civils et membre de plusieurs sociétés savantes. 
+Il a étudié les maladies nerveuses avec Jean-Martin Charcot et est devenu médecin de l'Assistance publique. 
 Il a écrit plusieurs ouvrages, dont un Manuel de médecine pratique et un ouvrage intitulé Maladies de la moelle épinière, leur traitement, qui est devenu un classique de la littérature médicale. 
 Il était spécialisé dans l'électrothérapie et fonda le premier institut électrothérapique de Paris, rue du Mont-Thabor.
 </t>
@@ -546,16 +560,18 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psychologie expérimentale : la régression sensorielle du sens de la vue, Institut populaire du progrès, 1893.
-Manuel d'électrothérapie à l'usage des malades, La Médecine nouvelle, 1892[4]
+Manuel d'électrothérapie à l'usage des malades, La Médecine nouvelle, 1892
 25 avril 1892. Le Centenaire de la guillotine, Paris, Décembre, 1892, 10 pages.
 Inauguration de la statue de Pinel, 13 juillet 1885, Paris, Société anonyme des imprimeries réunies, 1885.
 Notice sur le traitement du choléra dans une division du bureau de bienfaisance, comparé au traitement du choléra dans les hôpitaux civils de Paris, Paris, Malteste, 1866.
-Maladies de la moelle épinière, leur traitement, Paris, Chaix, 1860[5],[6],[7].
+Maladies de la moelle épinière, leur traitement, Paris, Chaix, 1860.
 Considérations générales sur l'anatomie, la physiologie, et les affections morbides du nerf grand sympathique, thèse de médecine, Paris, Rignoux, 1858.
-Manuel de médecine pratique, rédigé par le Docteur Delbreuilh d'après les leçons de Philippe-Charles Pinel, Paris, Institut électrothérapique, sans date[8].</t>
+Manuel de médecine pratique, rédigé par le Docteur Delbreuilh d'après les leçons de Philippe-Charles Pinel, Paris, Institut électrothérapique, sans date.</t>
         </is>
       </c>
     </row>
